--- a/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F-UnityProject\UtopiaOnline\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50EBD1E-E385-4ED7-945D-5572C9C62B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB4E6BC-3374-41EF-9EF4-6BA34FC3D698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="420" windowWidth="17316" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -110,6 +110,12 @@
   <si>
     <t>Map</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>ChatInfo</t>
   </si>
 </sst>
 </file>
@@ -499,19 +505,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H15"/>
+  <dimension ref="C3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -575,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -600,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -620,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -640,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -658,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -676,7 +682,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -694,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -714,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -731,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -748,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -758,6 +764,40 @@
       </c>
       <c r="G15" s="6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -775,13 +815,13 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -845,7 +885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>200</v>
       </c>

--- a/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F-UnityProject\UtopiaOnline\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\F-UnityProject\UtopiaOnline\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB4E6BC-3374-41EF-9EF4-6BA34FC3D698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6695B259-DFA4-4A60-9DEE-03C288F846C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="420" windowWidth="17316" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="17316" windowHeight="10740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>21</v>
